--- a/Doble Rendija/Doble Rendija.xlsx
+++ b/Doble Rendija/Doble Rendija.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\Séptimo Semestre\Lab Intermedio\Códigos Bitácoras\Laboratorio-Intermedio\Doble Rendija\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Laboratorio-Intermedio\Doble Rendija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EF057C-4A4D-4823-8573-07D2287CE701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA83530-7859-4C6A-B589-44824DAE48C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{2E4A7FBB-D726-4386-8505-87A1152B1909}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="16296" windowHeight="8616" activeTab="1" xr2:uid="{2E4A7FBB-D726-4386-8505-87A1152B1909}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -8171,9 +8171,9 @@
       <selection activeCell="A2" sqref="A2:B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>200</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>300</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>400</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>500</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>600</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>700</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>800</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>900</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1100</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1200</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1300</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1400</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1500</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1600</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1700</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1800</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1900</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2100</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2200</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2300</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2400</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2500</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2600</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2700</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2800</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2900</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3100</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3200</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3300</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3400</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3500</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3600</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3700</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3800</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3900</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4100</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4200</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4300</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4400</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4500</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4600</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4700</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4800</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4900</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5000</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5100</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5200</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5300</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5400</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5500</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5600</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5700</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5800</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5900</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6000</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6100</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6200</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6300</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6400</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6500</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6600</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6700</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6800</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6900</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7000</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7100</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7200</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7300</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7400</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7500</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7600</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7700</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7800</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>7900</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8000</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8100</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8200</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8300</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8400</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8500</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>8600</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8700</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8800</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8900</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9000</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9100</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9200</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9300</v>
       </c>
@@ -8936,357 +8936,357 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9400</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9500</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9600</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9700</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9800</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>9900</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>10000</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>10100</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>10200</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>10300</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>10400</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>10500</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>10600</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>10700</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>10800</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>10900</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>11000</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>11100</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>11200</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>11300</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>11400</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>11500</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>11600</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>11700</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>11800</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>11900</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>12000</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>12100</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>12200</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>12300</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>12400</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>12500</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>12600</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>12700</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>12800</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>12900</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>13000</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>13100</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>13200</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>13300</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13400</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>13500</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>13600</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>13700</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>13800</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>13900</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>14000</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>14100</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14200</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>14300</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14400</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>14500</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>14600</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14700</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>14800</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>14900</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>15000</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>15100</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>15200</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>15300</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>15400</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>15500</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>15600</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>15700</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>15800</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>15900</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>16000</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>16100</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>16200</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>16300</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>16400</v>
       </c>
@@ -9299,15 +9299,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45932754-7654-4E16-A116-0E15C0586A8C}">
-  <dimension ref="A1:B557"/>
+  <dimension ref="A1:B441"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B390" sqref="B390"/>
+    <sheetView tabSelected="1" zoomScale="52" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>120</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>140</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>160</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>180</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>200</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>220</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>240</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>260</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>280</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>300</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>320</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>340</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>360</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>380</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>400</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>420</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>440</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>460</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>480</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>500</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>520</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>540</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>560</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>580</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>600</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>620</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>640</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>660</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>680</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>700</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>720</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>740</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>760</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>780</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>800</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>820</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>840</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>860</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>880</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>900</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>920</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>940</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>960</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>980</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1000</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1020</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1040</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1060</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1080</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1100</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>1.55E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1120</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1140</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1160</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1180</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1200</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1220</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1240</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1260</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1280</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1300</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1320</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1340</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1360</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1380</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1400</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1420</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1440</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1460</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1480</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1500</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1520</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1540</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1560</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1580</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1600</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1620</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1640</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1660</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1680</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1700</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1720</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1740</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1760</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>1.55E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1780</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1800</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1820</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1840</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1860</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1880</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1900</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1920</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1940</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>1.55E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1960</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1980</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2000</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2020</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2040</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2060</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2080</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2100</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2120</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2140</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2160</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2180</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2200</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2220</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2240</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2260</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2280</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2300</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2320</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2340</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2360</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2380</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>1.77E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2400</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>1.78E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2420</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>1.77E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2440</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2460</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2480</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>1.72E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2500</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2520</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2540</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2560</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1.61E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2580</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2600</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2620</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2640</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2660</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>1.46E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2680</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2700</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2720</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2740</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2760</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>1.46E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2780</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>1.49E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2800</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2820</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2840</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2860</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2880</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2900</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2920</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>1.89E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2940</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>1.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2960</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2980</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>3000</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>3020</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>3040</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>3060</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>2.3900000000000001E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>3080</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>2.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3100</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>2.47E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>3120</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>3140</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>3160</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>3180</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>3200</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>3220</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>2.46E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>3240</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>3260</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>2.3699999999999999E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>3280</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3300</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>3320</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>3340</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>3360</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>2.12E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3380</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3400</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3420</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3440</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>3460</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>1.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3480</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>1.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>3500</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3520</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>2.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>3540</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>2.07E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>3560</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>2.12E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3580</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3600</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>3620</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3640</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>2.4299999999999999E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3660</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>3680</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>2.6100000000000002E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3700</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>2.7099999999999999E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3720</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>3740</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>2.93E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>3760</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>2.98E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3780</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3800</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3820</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>3840</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>3.2399999999999998E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>3860</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3880</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>3900</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>3920</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>3940</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3960</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>3.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>3980</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>3.4299999999999997E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>4000</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>4020</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>3.4700000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>4040</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>4060</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>3.5299999999999998E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>4080</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>4100</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>3.7900000000000003E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>4120</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4140</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>4160</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>4180</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>3.8199999999999998E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4200</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>3.8199999999999998E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4220</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>4240</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>4260</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>4280</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>4300</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>4320</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4340</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>4360</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>3.2800000000000003E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4380</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>4400</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>4420</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>4440</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>4460</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>4480</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>3.04E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>4500</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>4520</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>4540</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>4560</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>4580</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>4600</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4620</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>4640</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>4660</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>4680</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>4700</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>4720</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>6.0900000000000003E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>4740</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>4760</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>6.8699999999999997E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>4780</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>7.2300000000000003E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>4800</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>7.6300000000000007E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>4820</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>8.0199999999999994E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>4840</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>4860</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>4880</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>8.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>4900</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>4920</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>8.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>4940</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>8.9399999999999993E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>4960</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>8.8499999999999995E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>4980</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>8.7099999999999997E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>5000</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>8.5500000000000007E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>5020</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>8.2500000000000004E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>5040</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>8.0299999999999996E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>5060</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>7.6399999999999996E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>5080</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>7.1800000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>5100</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>5120</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>6.0699999999999997E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>5140</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>5.6099999999999997E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>5160</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>5180</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>4.87E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>5200</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>4.53E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>5220</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>5240</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>5260</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>5280</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>5300</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>3.6900000000000002E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>5320</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>3.7900000000000003E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>5340</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>4.02E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>5360</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>4.3299999999999998E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>5380</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>4.7399999999999998E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>5400</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>5420</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>5440</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>6.8500000000000005E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>5460</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>7.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>5480</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>8.4599999999999995E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>5500</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>9.2799999999999994E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>5520</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>5540</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>0.11260000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>5560</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>5580</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>5600</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>0.1381</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>5620</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>0.1487</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>5640</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>0.15559999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>5660</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>0.15629999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>5680</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>0.1615</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>5700</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>0.1668</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>5720</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>0.1701</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>5740</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>0.17230000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>5760</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>0.17119999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>5780</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>0.16930000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>5800</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>0.16550000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>5820</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>0.1605</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>5840</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>0.15409999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>5860</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>0.1467</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>5880</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>0.1366</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>5900</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>0.12709999999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>5920</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>0.1172</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>5940</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>5960</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>9.9500000000000005E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>5980</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>8.6599999999999996E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>6000</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>7.7299999999999994E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>6020</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>6.8199999999999997E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>6040</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>6060</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>5.4100000000000002E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>6080</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>6100</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>6120</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>6140</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>6160</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>4.58E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>6180</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>6200</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>5.7599999999999998E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>6220</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>6.6500000000000004E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>6240</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>6260</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>9.0300000000000005E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>6280</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>6300</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>0.1195</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>6320</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>0.13469999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>6340</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>6360</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>0.1673</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>6380</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>0.18179999999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>6400</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>0.1983</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>6420</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>6440</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>6460</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>6480</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>6500</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>6520</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>6540</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>6560</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>6580</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>6600</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>6620</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>6640</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>6660</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>0.17649999999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>6680</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>6700</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>6720</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>6740</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>6760</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>9.7100000000000006E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>6780</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>6800</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>6820</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>6840</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>5.2699999999999997E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>6860</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>6880</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>4.5499999999999999E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>6900</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>4.36E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>6920</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>6940</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>6960</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>6980</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>7000</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>7.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>7020</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>8.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>7040</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>0.1055</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>7060</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>0.12230000000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>7080</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>0.1394</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>7100</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>7120</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>7140</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>0.1923</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>7160</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>7180</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>7200</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>7220</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>7240</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>7260</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>7280</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>7300</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>7320</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>7340</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>7360</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>7380</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>7400</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>7420</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>7440</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>7460</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>7480</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>7500</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>7520</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>7540</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>0.12740000000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>7560</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>0.1147</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>7580</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>7600</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>7620</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>7640</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>7660</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>5.3699999999999998E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>7680</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>4.8099999999999997E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>7700</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>7720</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>7740</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>5.33E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>7760</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>7780</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>7.0599999999999996E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>7800</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>7.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>7820</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>7840</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>0.1003</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>7860</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>0.1212</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>7880</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>0.1295</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>7900</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>7920</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>0.16470000000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>7940</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>0.18379999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>7960</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>0.1903</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>7980</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>8000</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>8020</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>8040</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>8060</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>8080</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>8100</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>8120</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>8140</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>0.24890000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>8160</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>8180</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>8200</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>8220</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>8240</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>8260</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>0.1767</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>8280</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>8300</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>0.1439</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>8320</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>0.1285</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>8340</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>8360</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>8380</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>8.43E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>8400</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>7.1499999999999994E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>8420</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>8440</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>5.5500000000000001E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>8460</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>5.2200000000000003E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>8480</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>8500</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>4.4600000000000001E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>8520</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>8540</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>8560</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>8580</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>8600</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>8620</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>5.6300000000000003E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>8640</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>8660</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>6.3799999999999996E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>8680</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>6.3299999999999995E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>8700</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>5.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>8720</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>5.4600000000000003E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>8740</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>8760</v>
       </c>
@@ -12827,592 +12827,12 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>8780</v>
       </c>
       <c r="B441">
         <v>5.1799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442">
-        <v>8800</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443">
-        <v>8820</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444">
-        <v>8840</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445">
-        <v>8860</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446">
-        <v>8880</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447">
-        <v>8900</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <v>8920</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449">
-        <v>8940</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451">
-        <v>8980</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453">
-        <v>9020</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454">
-        <v>9040</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455">
-        <v>9060</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456">
-        <v>9080</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457">
-        <v>9100</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458">
-        <v>9120</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459">
-        <v>9140</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460">
-        <v>9160</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461">
-        <v>9180</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463">
-        <v>9220</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465">
-        <v>9260</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466">
-        <v>9280</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467">
-        <v>9300</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468">
-        <v>9320</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469">
-        <v>9340</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470">
-        <v>9360</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471">
-        <v>9380</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472">
-        <v>9400</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473">
-        <v>9420</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474">
-        <v>9440</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475">
-        <v>9460</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476">
-        <v>9480</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478">
-        <v>9520</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479">
-        <v>9540</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480">
-        <v>9560</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481">
-        <v>9580</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483">
-        <v>9620</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484">
-        <v>9640</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485">
-        <v>9660</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486">
-        <v>9680</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487">
-        <v>9700</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488">
-        <v>9720</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489">
-        <v>9740</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490">
-        <v>9760</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491">
-        <v>9780</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493">
-        <v>9820</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494">
-        <v>9840</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495">
-        <v>9860</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496">
-        <v>9880</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498">
-        <v>9920</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499">
-        <v>9940</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500">
-        <v>9960</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501">
-        <v>9980</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503">
-        <v>10020</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504">
-        <v>10040</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505">
-        <v>10060</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506">
-        <v>10080</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507">
-        <v>10100</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508">
-        <v>10120</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509">
-        <v>10140</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510">
-        <v>10160</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511">
-        <v>10180</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513">
-        <v>10220</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514">
-        <v>10240</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515">
-        <v>10260</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516">
-        <v>10280</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517">
-        <v>10300</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518">
-        <v>10320</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519">
-        <v>10340</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520">
-        <v>10360</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521">
-        <v>10380</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522">
-        <v>10400</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523">
-        <v>10420</v>
-      </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524">
-        <v>10440</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525">
-        <v>10460</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526">
-        <v>10480</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528">
-        <v>10520</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529">
-        <v>10540</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530">
-        <v>10560</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531">
-        <v>10580</v>
-      </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532">
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533">
-        <v>10620</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534">
-        <v>10640</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535">
-        <v>10660</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536">
-        <v>10680</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537">
-        <v>10700</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538">
-        <v>10720</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539">
-        <v>10740</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540">
-        <v>10760</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541">
-        <v>10780</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543">
-        <v>10820</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544">
-        <v>10840</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545">
-        <v>10860</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546">
-        <v>10880</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547">
-        <v>10900</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548">
-        <v>10920</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549">
-        <v>10940</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550">
-        <v>10960</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551">
-        <v>10980</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553">
-        <v>11020</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554">
-        <v>11040</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555">
-        <v>11060</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556">
-        <v>11080</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557">
-        <v>11100</v>
       </c>
     </row>
   </sheetData>
@@ -13425,13 +12845,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02B8FB0-C65B-4680-91D0-79A683F56097}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13439,7 +12859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13447,7 +12867,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -13455,7 +12875,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>200</v>
       </c>
@@ -13463,7 +12883,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>300</v>
       </c>
@@ -13471,7 +12891,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>400</v>
       </c>
@@ -13479,7 +12899,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>500</v>
       </c>
@@ -13487,7 +12907,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>600</v>
       </c>
@@ -13495,7 +12915,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>700</v>
       </c>
@@ -13503,7 +12923,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>800</v>
       </c>
@@ -13511,7 +12931,7 @@
         <v>1.03E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>900</v>
       </c>
@@ -13519,7 +12939,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -13527,7 +12947,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1100</v>
       </c>
@@ -13535,7 +12955,7 @@
         <v>1.09E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1200</v>
       </c>
@@ -13543,7 +12963,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1300</v>
       </c>
@@ -13551,7 +12971,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1400</v>
       </c>
@@ -13559,7 +12979,7 @@
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1500</v>
       </c>
@@ -13567,7 +12987,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1600</v>
       </c>
@@ -13575,7 +12995,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1700</v>
       </c>
@@ -13583,7 +13003,7 @@
         <v>1.83E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1800</v>
       </c>
@@ -13591,7 +13011,7 @@
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1900</v>
       </c>
@@ -13599,7 +13019,7 @@
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -13607,7 +13027,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2100</v>
       </c>
@@ -13615,7 +13035,7 @@
         <v>2.3900000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2200</v>
       </c>
@@ -13623,7 +13043,7 @@
         <v>2.6200000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2300</v>
       </c>
@@ -13631,7 +13051,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2400</v>
       </c>
@@ -13639,7 +13059,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2500</v>
       </c>
@@ -13647,7 +13067,7 @@
         <v>3.3099999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2600</v>
       </c>
@@ -13655,7 +13075,7 @@
         <v>3.49E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2700</v>
       </c>
@@ -13663,7 +13083,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2800</v>
       </c>
@@ -13671,7 +13091,7 @@
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2900</v>
       </c>
@@ -13679,7 +13099,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -13687,7 +13107,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3100</v>
       </c>
@@ -13695,7 +13115,7 @@
         <v>4.5900000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3200</v>
       </c>
@@ -13703,7 +13123,7 @@
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3300</v>
       </c>
@@ -13711,7 +13131,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3400</v>
       </c>
@@ -13719,7 +13139,7 @@
         <v>5.3900000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3500</v>
       </c>
@@ -13727,7 +13147,7 @@
         <v>5.6300000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3600</v>
       </c>
@@ -13735,7 +13155,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3700</v>
       </c>
@@ -13743,7 +13163,7 @@
         <v>6.0100000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3800</v>
       </c>
@@ -13751,7 +13171,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3900</v>
       </c>
@@ -13759,7 +13179,7 @@
         <v>6.3399999999999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -13767,7 +13187,7 @@
         <v>6.54E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4100</v>
       </c>
@@ -13775,7 +13195,7 @@
         <v>6.7900000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4200</v>
       </c>
@@ -13783,7 +13203,7 @@
         <v>7.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4300</v>
       </c>
@@ -13791,7 +13211,7 @@
         <v>7.2300000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4400</v>
       </c>
@@ -13799,7 +13219,7 @@
         <v>7.3899999999999993E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4500</v>
       </c>
@@ -13807,7 +13227,7 @@
         <v>7.51E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4600</v>
       </c>
@@ -13815,7 +13235,7 @@
         <v>7.5399999999999995E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4700</v>
       </c>
@@ -13823,7 +13243,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4800</v>
       </c>
@@ -13831,7 +13251,7 @@
         <v>7.4300000000000005E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4900</v>
       </c>
@@ -13839,7 +13259,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5000</v>
       </c>
@@ -13847,7 +13267,7 @@
         <v>7.6700000000000004E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5100</v>
       </c>
@@ -13855,7 +13275,7 @@
         <v>7.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5200</v>
       </c>
@@ -13863,7 +13283,7 @@
         <v>7.6300000000000007E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5300</v>
       </c>
@@ -13871,7 +13291,7 @@
         <v>7.5300000000000006E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5400</v>
       </c>
@@ -13879,7 +13299,7 @@
         <v>7.3899999999999993E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5500</v>
       </c>
@@ -13887,7 +13307,7 @@
         <v>7.1300000000000002E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5600</v>
       </c>
@@ -13895,7 +13315,7 @@
         <v>6.9099999999999995E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5700</v>
       </c>
@@ -13903,7 +13323,7 @@
         <v>6.7199999999999996E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5800</v>
       </c>
@@ -13911,7 +13331,7 @@
         <v>6.5699999999999995E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5900</v>
       </c>
@@ -13919,7 +13339,7 @@
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6000</v>
       </c>
@@ -13927,7 +13347,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6100</v>
       </c>
@@ -13935,7 +13355,7 @@
         <v>6.1100000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6200</v>
       </c>
@@ -13943,7 +13363,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6300</v>
       </c>
@@ -13951,7 +13371,7 @@
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6400</v>
       </c>
@@ -13959,7 +13379,7 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6500</v>
       </c>
@@ -13967,7 +13387,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6600</v>
       </c>
@@ -13975,7 +13395,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6700</v>
       </c>
@@ -13983,7 +13403,7 @@
         <v>2.06E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6800</v>
       </c>
@@ -13991,7 +13411,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6900</v>
       </c>
